--- a/F_dataset/DUD-E/AKT1/AKT1_prepare/AKT1_inactive.xlsx
+++ b/F_dataset/DUD-E/AKT1/AKT1_prepare/AKT1_inactive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T432"/>
+  <dimension ref="A1:T362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21473,5886 +21473,6 @@
       <c r="S362" t="inlineStr"/>
       <c r="T362" t="inlineStr"/>
     </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>CHEMBL393645</t>
-        </is>
-      </c>
-      <c r="B363" t="n">
-        <v>0</v>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>CC(C)[C@H](NC(=O)c1ccc(NC(=N)N)cc1)C(=O)N[C@@H](Cc1ccccc1)C(=O)NCc1ccccc1</t>
-        </is>
-      </c>
-      <c r="D363" t="inlineStr">
-        <is>
-          <t>CC(C)[C@H](NC(=O)c1ccc(NC(=N)N)cc1)C(=O)N[C@@H](Cc1ccccc1)C(=O)NCc1ccccc1</t>
-        </is>
-      </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G363" t="n">
-        <v>514.63</v>
-      </c>
-      <c r="H363" t="n">
-        <v>6</v>
-      </c>
-      <c r="I363" t="n">
-        <v>5</v>
-      </c>
-      <c r="J363" t="n">
-        <v>11</v>
-      </c>
-      <c r="K363" t="n">
-        <v>3</v>
-      </c>
-      <c r="L363" t="n">
-        <v>3</v>
-      </c>
-      <c r="M363" t="n">
-        <v>149.2</v>
-      </c>
-      <c r="N363" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O363" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P363" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q363" t="n">
-        <v>77000</v>
-      </c>
-      <c r="R363" t="inlineStr">
-        <is>
-          <t>CHEMBL903578</t>
-        </is>
-      </c>
-      <c r="S363" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt after 1 hr by fluorescence polarization assay</t>
-        </is>
-      </c>
-      <c r="T363" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>CHEMBL3109401</t>
-        </is>
-      </c>
-      <c r="B364" t="n">
-        <v>0</v>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>CC1=CCC[C@H]2[C@](C)(CC3=C(O)C(=O)C=C(NCCC(C)C)C3=O)[C@@H](C)CC[C@@]12C</t>
-        </is>
-      </c>
-      <c r="D364" t="inlineStr">
-        <is>
-          <t>CC1=CCC[C@@H]2[C@@]1(C)CC[C@H](C)[C@@]2(C)CC1=C(O)C(=O)C=C(NCCC(C)C)C1=O</t>
-        </is>
-      </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G364" t="n">
-        <v>413.6</v>
-      </c>
-      <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>4</v>
-      </c>
-      <c r="J364" t="n">
-        <v>6</v>
-      </c>
-      <c r="K364" t="n">
-        <v>3</v>
-      </c>
-      <c r="L364" t="n">
-        <v>0</v>
-      </c>
-      <c r="M364" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="N364" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O364" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P364" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q364" t="n">
-        <v>73200</v>
-      </c>
-      <c r="R364" t="inlineStr">
-        <is>
-          <t>CHEMBL3111649</t>
-        </is>
-      </c>
-      <c r="S364" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant AKT1 (unknown origin) using GSK3 (14 to 27) as substrate assessed as incorporation of [gamma-33P]-ATP into substrate by radiometric assay</t>
-        </is>
-      </c>
-      <c r="T364" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>CHEMBL372764</t>
-        </is>
-      </c>
-      <c r="B365" t="n">
-        <v>0</v>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCCCCCCCOP(=O)([O-])OC1CC[N+](C)(C)CC1</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCCCCCCCCCCOP(=O)([O-])OC1CC[N+](C)(C)CC1</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G365" t="n">
-        <v>461.67</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="n">
-        <v>4</v>
-      </c>
-      <c r="J365" t="n">
-        <v>20</v>
-      </c>
-      <c r="K365" t="n">
-        <v>1</v>
-      </c>
-      <c r="L365" t="n">
-        <v>0</v>
-      </c>
-      <c r="M365" t="n">
-        <v>58.59</v>
-      </c>
-      <c r="N365" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O365" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P365" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q365" t="n">
-        <v>43350</v>
-      </c>
-      <c r="R365" t="inlineStr">
-        <is>
-          <t>CHEMBL3821461</t>
-        </is>
-      </c>
-      <c r="S365" t="inlineStr">
-        <is>
-          <t>Inhibition of human Akt1 PH domain using AKTide-2T as substrate by ELISA</t>
-        </is>
-      </c>
-      <c r="T365" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>CHEMBL466143</t>
-        </is>
-      </c>
-      <c r="B366" t="n">
-        <v>0</v>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>CC(C)=CCc1c(O)cc(O)c(C(=O)/C=C/c2ccc(O)cc2)c1O</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>CC(C)=CCc1c(O)cc(O)c(C(=O)/C=C/c2ccc(O)cc2)c1O</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G366" t="n">
-        <v>340.38</v>
-      </c>
-      <c r="H366" t="n">
-        <v>4</v>
-      </c>
-      <c r="I366" t="n">
-        <v>5</v>
-      </c>
-      <c r="J366" t="n">
-        <v>5</v>
-      </c>
-      <c r="K366" t="n">
-        <v>2</v>
-      </c>
-      <c r="L366" t="n">
-        <v>2</v>
-      </c>
-      <c r="M366" t="n">
-        <v>97.98999999999999</v>
-      </c>
-      <c r="N366" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O366" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P366" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q366" t="n">
-        <v>143900</v>
-      </c>
-      <c r="R366" t="inlineStr">
-        <is>
-          <t>CHEMBL1918853</t>
-        </is>
-      </c>
-      <c r="S366" t="inlineStr">
-        <is>
-          <t>Inhibition of GST-tagged PKB/Akt1 incubated for 5 mins before eNOS substrate and ATP addition measured after 30 mins by kinase assay</t>
-        </is>
-      </c>
-      <c r="T366" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>CHEMBL3942274</t>
-        </is>
-      </c>
-      <c r="B367" t="n">
-        <v>0</v>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccc(NCCc2ccc(F)c(F)c2)c2cncnc12</t>
-        </is>
-      </c>
-      <c r="D367" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccc(NCCc2ccc(F)c(F)c2)c2cncnc12</t>
-        </is>
-      </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G367" t="n">
-        <v>328.32</v>
-      </c>
-      <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>4</v>
-      </c>
-      <c r="J367" t="n">
-        <v>5</v>
-      </c>
-      <c r="K367" t="n">
-        <v>3</v>
-      </c>
-      <c r="L367" t="n">
-        <v>3</v>
-      </c>
-      <c r="M367" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="N367" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O367" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P367" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q367" t="n">
-        <v>41000</v>
-      </c>
-      <c r="R367" t="inlineStr">
-        <is>
-          <t>CHEMBL3887082</t>
-        </is>
-      </c>
-      <c r="S367" t="inlineStr">
-        <is>
-          <t>AKT Enzyme Assay: A TTP Mosquito liquid handling instrument is used to place 125 ul of the appropriate concentration of inhibitor in 100% DMSO (for a dose response curve calculation) into each well of a 384-well plate. To this reaction components are added to a final volume of 12.50 0.1 ng/uL His-AKT (Full Length), (Invitrogen, Part # P2999, Lot #641228C). 160 uM ATP (Fluka, 02055) 1 mM DTT (Sigma, D0632) 1 mM MgCl2 (Sigma, M1028) 1 uM substrate peptide (sequence FITC-AHA-GRPRTSSFAEG-NH2), synthesized by Tufts Peptide Synthesis service. 100 mM HEPES pH 7.5 (Calbiochem, 391338) 0.015% Brij-35 (Sigma, B4184)The reaction is incubated for 90 min at 25° C, and then stopped by the addition of 70 ul of Stop buffer (100 mM HEPES pH 7.5, 0.015% Brij-35, 10 mM EDTA (Sigma, E7889)).The plate is read on a Caliper LC 3000 in an Off-Chip mobility shift assay format, using the following parameters for a 12-sipper chip: screening pressure -2.3 psi, upstream voltage -500, and downstream voltage -3000.</t>
-        </is>
-      </c>
-      <c r="T367" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>CHEMBL3679717</t>
-        </is>
-      </c>
-      <c r="B368" t="n">
-        <v>0</v>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>FC(F)(F)c1ccc(-c2nnc3n2-c2cccnc2Nc2ccccc2-3)cc1</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>FC(F)(F)c1ccc(-c2nnc3n2-c2cccnc2Nc2ccccc2-3)cc1</t>
-        </is>
-      </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G368" t="n">
-        <v>379.35</v>
-      </c>
-      <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>4</v>
-      </c>
-      <c r="J368" t="n">
-        <v>1</v>
-      </c>
-      <c r="K368" t="n">
-        <v>5</v>
-      </c>
-      <c r="L368" t="n">
-        <v>5</v>
-      </c>
-      <c r="M368" t="n">
-        <v>55.63</v>
-      </c>
-      <c r="N368" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O368" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P368" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q368" t="n">
-        <v>30000</v>
-      </c>
-      <c r="R368" t="inlineStr">
-        <is>
-          <t>CHEMBL3705356</t>
-        </is>
-      </c>
-      <c r="S368" t="inlineStr">
-        <is>
-          <t>Biochemical Assay: Biochemical assay using Akt AlphaScreen (Amplified Luminescent Proximity Homogeneous Assay) technology.</t>
-        </is>
-      </c>
-      <c r="T368" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>CHEMBL365978</t>
-        </is>
-      </c>
-      <c r="B369" t="n">
-        <v>0</v>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>CC1=C(C#N)c2nc(N)c(C#N)c(C)c2/C1=C/c1ccc(-c2ccc(C(=O)O)cc2)o1</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>CC1=C(C#N)c2nc(N)c(C#N)c(C)c2/C1=C/c1ccc(-c2ccc(C(=O)O)cc2)o1</t>
-        </is>
-      </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G369" t="n">
-        <v>408.42</v>
-      </c>
-      <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>7</v>
-      </c>
-      <c r="J369" t="n">
-        <v>3</v>
-      </c>
-      <c r="K369" t="n">
-        <v>4</v>
-      </c>
-      <c r="L369" t="n">
-        <v>3</v>
-      </c>
-      <c r="M369" t="n">
-        <v>136.93</v>
-      </c>
-      <c r="N369" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O369" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P369" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q369" t="n">
-        <v>126000</v>
-      </c>
-      <c r="R369" t="inlineStr">
-        <is>
-          <t>CHEMBL1108601</t>
-        </is>
-      </c>
-      <c r="S369" t="inlineStr">
-        <is>
-          <t>Inhibition of Akt1</t>
-        </is>
-      </c>
-      <c r="T369" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>CHEMBL4451466</t>
-        </is>
-      </c>
-      <c r="B370" t="n">
-        <v>0</v>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>CCOC(=O)/C=C/c1c(O)c(OC)cc(NS(=O)(=O)c2cccs2)c1SC</t>
-        </is>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>CCOC(=O)/C=C/c1c(O)c(OC)cc(NS(=O)(=O)c2cccs2)c1SC</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G370" t="n">
-        <v>429.54</v>
-      </c>
-      <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>7</v>
-      </c>
-      <c r="J370" t="n">
-        <v>8</v>
-      </c>
-      <c r="K370" t="n">
-        <v>2</v>
-      </c>
-      <c r="L370" t="n">
-        <v>2</v>
-      </c>
-      <c r="M370" t="n">
-        <v>101.93</v>
-      </c>
-      <c r="N370" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O370" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P370" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q370" t="n">
-        <v>330000</v>
-      </c>
-      <c r="R370" t="inlineStr">
-        <is>
-          <t>CHEMBL4419259</t>
-        </is>
-      </c>
-      <c r="S370" t="inlineStr">
-        <is>
-          <t>Binding affinity to AKT PH-domain (unknown origin) at 0.01 to 50 uM by SPR spectroscopy</t>
-        </is>
-      </c>
-      <c r="T370" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>CHEMBL1685038</t>
-        </is>
-      </c>
-      <c r="B371" t="n">
-        <v>0</v>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCC(=O)Nc1ccc(S(=O)(=O)Nc2nnc(C)s2)cc1</t>
-        </is>
-      </c>
-      <c r="D371" t="inlineStr">
-        <is>
-          <t>CCCCCCCCCC(=O)Nc1ccc(S(=O)(=O)Nc2nnc(C)s2)cc1</t>
-        </is>
-      </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G371" t="n">
-        <v>424.59</v>
-      </c>
-      <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>5</v>
-      </c>
-      <c r="J371" t="n">
-        <v>12</v>
-      </c>
-      <c r="K371" t="n">
-        <v>2</v>
-      </c>
-      <c r="L371" t="n">
-        <v>2</v>
-      </c>
-      <c r="M371" t="n">
-        <v>101.05</v>
-      </c>
-      <c r="N371" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O371" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P371" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q371" t="n">
-        <v>46700</v>
-      </c>
-      <c r="R371" t="inlineStr">
-        <is>
-          <t>CHEMBL3888333</t>
-        </is>
-      </c>
-      <c r="S371" t="inlineStr">
-        <is>
-          <t>SPR Competitive Binding Assay: SPR interaction analyses were performed with a Biacore 2000, using Biacore 2000 Control Software v3.2 and BIAevaluation v4.1 analysis software (Biacore) as described in Mol Cancer Ther 7:2621 (2008). For the competitive binding assays and the Ki determination, PtdIns(3,4,5)phosphate-biotin labeled liposomes (Echelon Biosciences) and SA chips were used with increasing concentrations of the compound tested.</t>
-        </is>
-      </c>
-      <c r="T371" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>CHEMBL3732044</t>
-        </is>
-      </c>
-      <c r="B372" t="n">
-        <v>0</v>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr">
-        <is>
-          <t>NCCN1C(=O)S/C(=C\CCC2CCCCC2)C1=O</t>
-        </is>
-      </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G372" t="n">
-        <v>282.41</v>
-      </c>
-      <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>4</v>
-      </c>
-      <c r="J372" t="n">
-        <v>5</v>
-      </c>
-      <c r="K372" t="n">
-        <v>2</v>
-      </c>
-      <c r="L372" t="n">
-        <v>0</v>
-      </c>
-      <c r="M372" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="N372" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O372" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P372" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q372" t="n">
-        <v>3</v>
-      </c>
-      <c r="R372" t="inlineStr">
-        <is>
-          <t>CHEMBL3734457</t>
-        </is>
-      </c>
-      <c r="S372" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human AKT1 using fluorescein-labeled peptide as substrate by fluorescence-electrophoretic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T372" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>CHEMBL1767254</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>0</v>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccsc1NC(=O)Cc1csc2ccccc12</t>
-        </is>
-      </c>
-      <c r="D373" t="inlineStr">
-        <is>
-          <t>NC(=O)c1ccsc1NC(=O)Cc1csc2ccccc12</t>
-        </is>
-      </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G373" t="n">
-        <v>316.41</v>
-      </c>
-      <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>2</v>
-      </c>
-      <c r="J373" t="n">
-        <v>4</v>
-      </c>
-      <c r="K373" t="n">
-        <v>3</v>
-      </c>
-      <c r="L373" t="n">
-        <v>3</v>
-      </c>
-      <c r="M373" t="n">
-        <v>72.19</v>
-      </c>
-      <c r="N373" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O373" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P373" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q373" t="n">
-        <v>5</v>
-      </c>
-      <c r="R373" t="inlineStr">
-        <is>
-          <t>CHEMBL1768215</t>
-        </is>
-      </c>
-      <c r="S373" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 25 uM by TR-FRET assay</t>
-        </is>
-      </c>
-      <c r="T373" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>CHEMBL272265</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>0</v>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>N#CCc1ccc(-n2cnc3cnc4ccc(C#Cc5cccnc5)cc4c32)cc1</t>
-        </is>
-      </c>
-      <c r="D374" t="inlineStr">
-        <is>
-          <t>N#CCc1ccc(-n2cnc3cnc4ccc(C#Cc5cccnc5)cc4c32)cc1</t>
-        </is>
-      </c>
-      <c r="E374" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F374" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G374" t="n">
-        <v>385.43</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="n">
-        <v>4</v>
-      </c>
-      <c r="J374" t="n">
-        <v>2</v>
-      </c>
-      <c r="K374" t="n">
-        <v>5</v>
-      </c>
-      <c r="L374" t="n">
-        <v>5</v>
-      </c>
-      <c r="M374" t="n">
-        <v>67.39</v>
-      </c>
-      <c r="N374" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O374" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P374" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q374" t="n">
-        <v>0</v>
-      </c>
-      <c r="R374" t="inlineStr">
-        <is>
-          <t>CHEMBL947154</t>
-        </is>
-      </c>
-      <c r="S374" t="inlineStr">
-        <is>
-          <t>Inhibition of PKB at 10 uM</t>
-        </is>
-      </c>
-      <c r="T374" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>CHEMBL474804</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>0</v>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>COc1ccc2sc(Sc3ncc([N+](=O)[O-])s3)nc2c1</t>
-        </is>
-      </c>
-      <c r="D375" t="inlineStr">
-        <is>
-          <t>COc1ccc2sc(Sc3ncc([N+](=O)[O-])s3)nc2c1</t>
-        </is>
-      </c>
-      <c r="E375" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F375" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G375" t="n">
-        <v>325.4</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="n">
-        <v>6</v>
-      </c>
-      <c r="J375" t="n">
-        <v>4</v>
-      </c>
-      <c r="K375" t="n">
-        <v>3</v>
-      </c>
-      <c r="L375" t="n">
-        <v>3</v>
-      </c>
-      <c r="M375" t="n">
-        <v>78.15000000000001</v>
-      </c>
-      <c r="N375" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O375" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P375" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q375" t="n">
-        <v>5</v>
-      </c>
-      <c r="R375" t="inlineStr">
-        <is>
-          <t>CHEMBL957583</t>
-        </is>
-      </c>
-      <c r="S375" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT at 100 uM</t>
-        </is>
-      </c>
-      <c r="T375" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>CHEMBL1813604</t>
-        </is>
-      </c>
-      <c r="B376" t="n">
-        <v>0</v>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>Cc1cc2[nH]nc(N)c2c(=O)[nH]1</t>
-        </is>
-      </c>
-      <c r="D376" t="inlineStr">
-        <is>
-          <t>Cc1cc2[nH]nc(N)c2c(=O)[nH]1</t>
-        </is>
-      </c>
-      <c r="E376" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F376" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G376" t="n">
-        <v>164.17</v>
-      </c>
-      <c r="H376" t="n">
-        <v>3</v>
-      </c>
-      <c r="I376" t="n">
-        <v>3</v>
-      </c>
-      <c r="J376" t="n">
-        <v>0</v>
-      </c>
-      <c r="K376" t="n">
-        <v>2</v>
-      </c>
-      <c r="L376" t="n">
-        <v>2</v>
-      </c>
-      <c r="M376" t="n">
-        <v>87.56</v>
-      </c>
-      <c r="N376" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O376" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P376" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q376" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R376" t="inlineStr">
-        <is>
-          <t>CHEMBL1815739</t>
-        </is>
-      </c>
-      <c r="S376" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 30 uM by microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T376" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>CHEMBL521145</t>
-        </is>
-      </c>
-      <c r="B377" t="n">
-        <v>0</v>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>Cc1ccc(CN2CCN(c3nccc(C(C#N)c4ccccn4)n3)CC2)cc1</t>
-        </is>
-      </c>
-      <c r="D377" t="inlineStr">
-        <is>
-          <t>Cc1ccc(CN2CCN(c3nccc(C(C#N)c4ccccn4)n3)CC2)cc1</t>
-        </is>
-      </c>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F377" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G377" t="n">
-        <v>384.49</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="n">
-        <v>6</v>
-      </c>
-      <c r="J377" t="n">
-        <v>5</v>
-      </c>
-      <c r="K377" t="n">
-        <v>4</v>
-      </c>
-      <c r="L377" t="n">
-        <v>3</v>
-      </c>
-      <c r="M377" t="n">
-        <v>68.94</v>
-      </c>
-      <c r="N377" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O377" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P377" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q377" t="n">
-        <v>0</v>
-      </c>
-      <c r="R377" t="inlineStr">
-        <is>
-          <t>CHEMBL953394</t>
-        </is>
-      </c>
-      <c r="S377" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1/PKBalpha at 10 uM by HTRF assay relative to control</t>
-        </is>
-      </c>
-      <c r="T377" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>CHEMBL579387</t>
-        </is>
-      </c>
-      <c r="B378" t="n">
-        <v>0</v>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>O=C1OC(c2ccccc2)=N/C1=C\c1cccnc1</t>
-        </is>
-      </c>
-      <c r="D378" t="inlineStr">
-        <is>
-          <t>O=C1OC(c2ccccc2)=N/C1=C\c1cccnc1</t>
-        </is>
-      </c>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F378" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G378" t="n">
-        <v>250.26</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="n">
-        <v>3</v>
-      </c>
-      <c r="J378" t="n">
-        <v>2</v>
-      </c>
-      <c r="K378" t="n">
-        <v>3</v>
-      </c>
-      <c r="L378" t="n">
-        <v>2</v>
-      </c>
-      <c r="M378" t="n">
-        <v>51.55</v>
-      </c>
-      <c r="N378" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O378" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P378" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q378" t="n">
-        <v>12</v>
-      </c>
-      <c r="R378" t="inlineStr">
-        <is>
-          <t>CHEMBL1113463</t>
-        </is>
-      </c>
-      <c r="S378" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T378" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>CHEMBL1215346</t>
-        </is>
-      </c>
-      <c r="B379" t="n">
-        <v>0</v>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>CN(C)CCCc1c(/C=C2\C(=O)Nc3ccc(NS(=O)(=O)c4ccccc4)cc32)[nH]c2c1C(=O)CCC2</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr">
-        <is>
-          <t>CN(C)CCCc1c(/C=C2\C(=O)Nc3ccc(NS(=O)(=O)c4ccccc4)cc32)[nH]c2c1C(=O)CCC2</t>
-        </is>
-      </c>
-      <c r="E379" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G379" t="n">
-        <v>518.64</v>
-      </c>
-      <c r="H379" t="n">
-        <v>3</v>
-      </c>
-      <c r="I379" t="n">
-        <v>5</v>
-      </c>
-      <c r="J379" t="n">
-        <v>8</v>
-      </c>
-      <c r="K379" t="n">
-        <v>5</v>
-      </c>
-      <c r="L379" t="n">
-        <v>3</v>
-      </c>
-      <c r="M379" t="n">
-        <v>111.37</v>
-      </c>
-      <c r="N379" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O379" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P379" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q379" t="n">
-        <v>9</v>
-      </c>
-      <c r="R379" t="inlineStr">
-        <is>
-          <t>CHEMBL1219734</t>
-        </is>
-      </c>
-      <c r="S379" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 1 uM by radiometric method</t>
-        </is>
-      </c>
-      <c r="T379" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>CHEMBL529177</t>
-        </is>
-      </c>
-      <c r="B380" t="n">
-        <v>0</v>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>Cc1c(N)ccc2[nH]c(-c3ccc(N)cc3)nc12</t>
-        </is>
-      </c>
-      <c r="D380" t="inlineStr">
-        <is>
-          <t>Cc1c(N)ccc2[nH]c(-c3ccc(N)cc3)nc12</t>
-        </is>
-      </c>
-      <c r="E380" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G380" t="n">
-        <v>238.29</v>
-      </c>
-      <c r="H380" t="n">
-        <v>3</v>
-      </c>
-      <c r="I380" t="n">
-        <v>3</v>
-      </c>
-      <c r="J380" t="n">
-        <v>1</v>
-      </c>
-      <c r="K380" t="n">
-        <v>3</v>
-      </c>
-      <c r="L380" t="n">
-        <v>3</v>
-      </c>
-      <c r="M380" t="n">
-        <v>80.72</v>
-      </c>
-      <c r="N380" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O380" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P380" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q380" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="R380" t="inlineStr">
-        <is>
-          <t>CHEMBL1777657</t>
-        </is>
-      </c>
-      <c r="S380" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T380" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>CHEMBL84558</t>
-        </is>
-      </c>
-      <c r="B381" t="n">
-        <v>0</v>
-      </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>CCCOc1ccc(/C=C2\SC(=O)NC2=O)cc1</t>
-        </is>
-      </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>CCCOc1ccc(/C=C2\SC(=O)NC2=O)cc1</t>
-        </is>
-      </c>
-      <c r="E381" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F381" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G381" t="n">
-        <v>263.32</v>
-      </c>
-      <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>4</v>
-      </c>
-      <c r="J381" t="n">
-        <v>4</v>
-      </c>
-      <c r="K381" t="n">
-        <v>2</v>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="N381" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O381" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P381" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q381" t="n">
-        <v>6</v>
-      </c>
-      <c r="R381" t="inlineStr">
-        <is>
-          <t>CHEMBL1012666</t>
-        </is>
-      </c>
-      <c r="S381" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 5 uM</t>
-        </is>
-      </c>
-      <c r="T381" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>CHEMBL483518</t>
-        </is>
-      </c>
-      <c r="B382" t="n">
-        <v>0</v>
-      </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>COc1cccc(Nc2cc(N3CCC[C@H]3C(=O)NCCc3ccc(O)cc3)nc(N)n2)c1</t>
-        </is>
-      </c>
-      <c r="D382" t="inlineStr">
-        <is>
-          <t>COc1cccc(Nc2cc(N3CCC[C@H]3C(=O)NCCc3ccc(O)cc3)nc(N)n2)c1</t>
-        </is>
-      </c>
-      <c r="E382" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F382" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G382" t="n">
-        <v>448.53</v>
-      </c>
-      <c r="H382" t="n">
-        <v>4</v>
-      </c>
-      <c r="I382" t="n">
-        <v>8</v>
-      </c>
-      <c r="J382" t="n">
-        <v>8</v>
-      </c>
-      <c r="K382" t="n">
-        <v>4</v>
-      </c>
-      <c r="L382" t="n">
-        <v>3</v>
-      </c>
-      <c r="M382" t="n">
-        <v>125.63</v>
-      </c>
-      <c r="N382" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O382" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P382" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q382" t="n">
-        <v>1</v>
-      </c>
-      <c r="R382" t="inlineStr">
-        <is>
-          <t>CHEMBL953394</t>
-        </is>
-      </c>
-      <c r="S382" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1/PKBalpha at 10 uM by HTRF assay relative to control</t>
-        </is>
-      </c>
-      <c r="T382" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>CHEMBL4528675</t>
-        </is>
-      </c>
-      <c r="B383" t="n">
-        <v>0</v>
-      </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="D383" t="inlineStr">
-        <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="E383" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F383" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G383" t="n">
-        <v>535.55</v>
-      </c>
-      <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>7</v>
-      </c>
-      <c r="J383" t="n">
-        <v>7</v>
-      </c>
-      <c r="K383" t="n">
-        <v>5</v>
-      </c>
-      <c r="L383" t="n">
-        <v>4</v>
-      </c>
-      <c r="M383" t="n">
-        <v>107.06</v>
-      </c>
-      <c r="N383" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O383" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P383" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q383" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="R383" t="inlineStr">
-        <is>
-          <t>CHEMBL4366278</t>
-        </is>
-      </c>
-      <c r="S383" t="inlineStr">
-        <is>
-          <t>Inhibition of human AKT1 at 100 nM using KGSGSGRPRTSSFAEG as substrate by [gamma-33P]-ATP assay</t>
-        </is>
-      </c>
-      <c r="T383" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>CHEMBL501182</t>
-        </is>
-      </c>
-      <c r="B384" t="n">
-        <v>0</v>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>O=C(NCc1cccnc1)c1cccc(-c2ccc(Nc3ccc4ncsc4c3)nn2)c1</t>
-        </is>
-      </c>
-      <c r="D384" t="inlineStr">
-        <is>
-          <t>O=C(NCc1cccnc1)c1cccc(-c2ccc(Nc3ccc4ncsc4c3)nn2)c1</t>
-        </is>
-      </c>
-      <c r="E384" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G384" t="n">
-        <v>438.52</v>
-      </c>
-      <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>6</v>
-      </c>
-      <c r="J384" t="n">
-        <v>6</v>
-      </c>
-      <c r="K384" t="n">
-        <v>5</v>
-      </c>
-      <c r="L384" t="n">
-        <v>5</v>
-      </c>
-      <c r="M384" t="n">
-        <v>92.69</v>
-      </c>
-      <c r="N384" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O384" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P384" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q384" t="n">
-        <v>5</v>
-      </c>
-      <c r="R384" t="inlineStr">
-        <is>
-          <t>CHEMBL953394</t>
-        </is>
-      </c>
-      <c r="S384" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1/PKBalpha at 10 uM by HTRF assay relative to control</t>
-        </is>
-      </c>
-      <c r="T384" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>CHEMBL3758502</t>
-        </is>
-      </c>
-      <c r="B385" t="n">
-        <v>0</v>
-      </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>CC1(C)OCc2c(Nc3n[nH]c4ccccc34)nc(-c3cn[nH]c3)nc21</t>
-        </is>
-      </c>
-      <c r="D385" t="inlineStr">
-        <is>
-          <t>CC1(C)OCc2c(Nc3n[nH]c4ccccc34)nc(-c3cn[nH]c3)nc21</t>
-        </is>
-      </c>
-      <c r="E385" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G385" t="n">
-        <v>347.38</v>
-      </c>
-      <c r="H385" t="n">
-        <v>3</v>
-      </c>
-      <c r="I385" t="n">
-        <v>6</v>
-      </c>
-      <c r="J385" t="n">
-        <v>3</v>
-      </c>
-      <c r="K385" t="n">
-        <v>5</v>
-      </c>
-      <c r="L385" t="n">
-        <v>4</v>
-      </c>
-      <c r="M385" t="n">
-        <v>104.4</v>
-      </c>
-      <c r="N385" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O385" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P385" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q385" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R385" t="inlineStr">
-        <is>
-          <t>CHEMBL3762142</t>
-        </is>
-      </c>
-      <c r="S385" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 100 nM</t>
-        </is>
-      </c>
-      <c r="T385" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>CHEMBL1276179</t>
-        </is>
-      </c>
-      <c r="B386" t="n">
-        <v>0</v>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>CN1C[C@@H]2C[C@H]1CN2c1cc(F)c(-c2ccnc3c(-c4cccc5[nH]ncc45)c(-c4ccncc4)nn23)c(F)c1</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr">
-        <is>
-          <t>CN1C[C@@H]2C[C@H]1CN2c1cc(F)c(-c2ccnc3c(-c4cccc5[nH]ncc45)c(-c4ccncc4)nn23)c(F)c1</t>
-        </is>
-      </c>
-      <c r="E386" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G386" t="n">
-        <v>534.5700000000001</v>
-      </c>
-      <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>6</v>
-      </c>
-      <c r="J386" t="n">
-        <v>4</v>
-      </c>
-      <c r="K386" t="n">
-        <v>8</v>
-      </c>
-      <c r="L386" t="n">
-        <v>6</v>
-      </c>
-      <c r="M386" t="n">
-        <v>78.23999999999999</v>
-      </c>
-      <c r="N386" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O386" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P386" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q386" t="n">
-        <v>5</v>
-      </c>
-      <c r="R386" t="inlineStr">
-        <is>
-          <t>CHEMBL1285568</t>
-        </is>
-      </c>
-      <c r="S386" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T386" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>CHEMBL2347824</t>
-        </is>
-      </c>
-      <c r="B387" t="n">
-        <v>0</v>
-      </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>CC(C)Nc1c(C#N)cnc2cc(-c3cnn(C)c3)ccc12</t>
-        </is>
-      </c>
-      <c r="D387" t="inlineStr">
-        <is>
-          <t>CC(C)Nc1c(C#N)cnc2cc(-c3cnn(C)c3)ccc12</t>
-        </is>
-      </c>
-      <c r="E387" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G387" t="n">
-        <v>291.36</v>
-      </c>
-      <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>4</v>
-      </c>
-      <c r="J387" t="n">
-        <v>3</v>
-      </c>
-      <c r="K387" t="n">
-        <v>3</v>
-      </c>
-      <c r="L387" t="n">
-        <v>3</v>
-      </c>
-      <c r="M387" t="n">
-        <v>66.53</v>
-      </c>
-      <c r="N387" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O387" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P387" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q387" t="n">
-        <v>0</v>
-      </c>
-      <c r="R387" t="inlineStr">
-        <is>
-          <t>CHEMBL2352291</t>
-        </is>
-      </c>
-      <c r="S387" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 1 uM by single point assay</t>
-        </is>
-      </c>
-      <c r="T387" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>CHEMBL4276817</t>
-        </is>
-      </c>
-      <c r="B388" t="n">
-        <v>0</v>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>O=c1cc(-c2ccc(-c3ccccc3)cc2)c2ccc(N3CCC(NCCc4ccccc4)CC3)cc2o1</t>
-        </is>
-      </c>
-      <c r="D388" t="inlineStr">
-        <is>
-          <t>O=c1cc(-c2ccc(-c3ccccc3)cc2)c2ccc(N3CCC(NCCc4ccccc4)CC3)cc2o1</t>
-        </is>
-      </c>
-      <c r="E388" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F388" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G388" t="n">
-        <v>500.64</v>
-      </c>
-      <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>4</v>
-      </c>
-      <c r="J388" t="n">
-        <v>7</v>
-      </c>
-      <c r="K388" t="n">
-        <v>6</v>
-      </c>
-      <c r="L388" t="n">
-        <v>5</v>
-      </c>
-      <c r="M388" t="n">
-        <v>45.48</v>
-      </c>
-      <c r="N388" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O388" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P388" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q388" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="R388" t="inlineStr">
-        <is>
-          <t>CHEMBL4271859</t>
-        </is>
-      </c>
-      <c r="S388" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT (unknown origin) at 30 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T388" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>CHEMBL3735890</t>
-        </is>
-      </c>
-      <c r="B389" t="n">
-        <v>0</v>
-      </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>COc1ccc2c(c1C(C)N1CCNCC1)O/C(=C\c1n[nH]c3ncccc13)C2=O</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr">
-        <is>
-          <t>COc1ccc2c(c1C(C)N1CCNCC1)O/C(=C\c1n[nH]c3ncccc13)C2=O</t>
-        </is>
-      </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G389" t="n">
-        <v>405.46</v>
-      </c>
-      <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>7</v>
-      </c>
-      <c r="J389" t="n">
-        <v>4</v>
-      </c>
-      <c r="K389" t="n">
-        <v>5</v>
-      </c>
-      <c r="L389" t="n">
-        <v>3</v>
-      </c>
-      <c r="M389" t="n">
-        <v>92.37</v>
-      </c>
-      <c r="N389" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O389" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P389" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q389" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R389" t="inlineStr">
-        <is>
-          <t>CHEMBL3738548</t>
-        </is>
-      </c>
-      <c r="S389" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 200 nM by electrophoretic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T389" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>CHEMBL175603</t>
-        </is>
-      </c>
-      <c r="B390" t="n">
-        <v>0</v>
-      </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>Fc1ccc(Sc2ncnc3[nH]cnc23)cc1</t>
-        </is>
-      </c>
-      <c r="D390" t="inlineStr">
-        <is>
-          <t>Fc1ccc(Sc2ncnc3[nH]cnc23)cc1</t>
-        </is>
-      </c>
-      <c r="E390" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G390" t="n">
-        <v>246.27</v>
-      </c>
-      <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>4</v>
-      </c>
-      <c r="J390" t="n">
-        <v>2</v>
-      </c>
-      <c r="K390" t="n">
-        <v>3</v>
-      </c>
-      <c r="L390" t="n">
-        <v>3</v>
-      </c>
-      <c r="M390" t="n">
-        <v>54.46</v>
-      </c>
-      <c r="N390" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O390" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P390" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q390" t="n">
-        <v>0</v>
-      </c>
-      <c r="R390" t="inlineStr">
-        <is>
-          <t>CHEMBL830592</t>
-        </is>
-      </c>
-      <c r="S390" t="inlineStr">
-        <is>
-          <t>Inhibition of human Protein kinase B alpha at 30 uM</t>
-        </is>
-      </c>
-      <c r="T390" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>CHEMBL583042</t>
-        </is>
-      </c>
-      <c r="B391" t="n">
-        <v>0</v>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>Cc1cnc(Nc2ccc(F)cc2Cl)nc1-c1c[nH]c(C(=O)N[C@H](CO)c2cccc(Cl)c2)c1</t>
-        </is>
-      </c>
-      <c r="D391" t="inlineStr">
-        <is>
-          <t>Cc1cnc(Nc2ccc(F)cc2Cl)nc1-c1c[nH]c(C(=O)N[C@H](CO)c2cccc(Cl)c2)c1</t>
-        </is>
-      </c>
-      <c r="E391" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F391" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G391" t="n">
-        <v>500.36</v>
-      </c>
-      <c r="H391" t="n">
-        <v>4</v>
-      </c>
-      <c r="I391" t="n">
-        <v>5</v>
-      </c>
-      <c r="J391" t="n">
-        <v>7</v>
-      </c>
-      <c r="K391" t="n">
-        <v>4</v>
-      </c>
-      <c r="L391" t="n">
-        <v>4</v>
-      </c>
-      <c r="M391" t="n">
-        <v>102.93</v>
-      </c>
-      <c r="N391" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O391" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P391" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q391" t="n">
-        <v>0</v>
-      </c>
-      <c r="R391" t="inlineStr">
-        <is>
-          <t>CHEMBL1040494</t>
-        </is>
-      </c>
-      <c r="S391" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T391" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>CHEMBL524898</t>
-        </is>
-      </c>
-      <c r="B392" t="n">
-        <v>0</v>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>Cc1cccc(N(C)c2cc(N3CCN(C(=O)Cc4c[nH]c5ccccc45)CC3)ncn2)c1</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr">
-        <is>
-          <t>Cc1cccc(N(C)c2cc(N3CCN(C(=O)Cc4c[nH]c5ccccc45)CC3)ncn2)c1</t>
-        </is>
-      </c>
-      <c r="E392" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G392" t="n">
-        <v>440.55</v>
-      </c>
-      <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>5</v>
-      </c>
-      <c r="J392" t="n">
-        <v>5</v>
-      </c>
-      <c r="K392" t="n">
-        <v>5</v>
-      </c>
-      <c r="L392" t="n">
-        <v>4</v>
-      </c>
-      <c r="M392" t="n">
-        <v>68.36</v>
-      </c>
-      <c r="N392" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O392" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P392" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q392" t="n">
-        <v>0</v>
-      </c>
-      <c r="R392" t="inlineStr">
-        <is>
-          <t>CHEMBL953394</t>
-        </is>
-      </c>
-      <c r="S392" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1/PKBalpha at 10 uM by HTRF assay relative to control</t>
-        </is>
-      </c>
-      <c r="T392" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>CHEMBL4589022</t>
-        </is>
-      </c>
-      <c r="B393" t="n">
-        <v>0</v>
-      </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>CC(C)n1cc(-c2n[nH]c3ccnc(OC4CCOCC4)c23)cn1</t>
-        </is>
-      </c>
-      <c r="D393" t="inlineStr">
-        <is>
-          <t>CC(C)n1cc(-c2n[nH]c3ccnc(OC4CCOCC4)c23)cn1</t>
-        </is>
-      </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G393" t="n">
-        <v>327.39</v>
-      </c>
-      <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>5</v>
-      </c>
-      <c r="J393" t="n">
-        <v>4</v>
-      </c>
-      <c r="K393" t="n">
-        <v>4</v>
-      </c>
-      <c r="L393" t="n">
-        <v>3</v>
-      </c>
-      <c r="M393" t="n">
-        <v>77.84999999999999</v>
-      </c>
-      <c r="N393" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O393" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P393" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q393" t="n">
-        <v>0</v>
-      </c>
-      <c r="R393" t="inlineStr">
-        <is>
-          <t>CHEMBL4332005</t>
-        </is>
-      </c>
-      <c r="S393" t="inlineStr">
-        <is>
-          <t>Inhibition of PKBa (unknown origin) at 1 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T393" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>CHEMBL190143</t>
-        </is>
-      </c>
-      <c r="B394" t="n">
-        <v>0</v>
-      </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>COC(=O)CCc1ccc(-c2nc3cc4ccccc4cc3nc2-c2ccc(CCC(=O)OC)s2)s1</t>
-        </is>
-      </c>
-      <c r="D394" t="inlineStr">
-        <is>
-          <t>COC(=O)CCc1ccc(-c2nc3cc4ccccc4cc3nc2-c2ccc(CCC(=O)OC)s2)s1</t>
-        </is>
-      </c>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G394" t="n">
-        <v>516.64</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="n">
-        <v>6</v>
-      </c>
-      <c r="J394" t="n">
-        <v>8</v>
-      </c>
-      <c r="K394" t="n">
-        <v>5</v>
-      </c>
-      <c r="L394" t="n">
-        <v>5</v>
-      </c>
-      <c r="M394" t="n">
-        <v>78.38</v>
-      </c>
-      <c r="N394" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O394" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P394" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q394" t="n">
-        <v>14</v>
-      </c>
-      <c r="R394" t="inlineStr">
-        <is>
-          <t>CHEMBL835568</t>
-        </is>
-      </c>
-      <c r="S394" t="inlineStr">
-        <is>
-          <t>In vitro percent inhibition of Protein kinase B, alpha at 10 uM concentration of compound dissolved in 100% DMSO using 5''-[gamma-33P]-triphosphate</t>
-        </is>
-      </c>
-      <c r="T394" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>CHEMBL1077739</t>
-        </is>
-      </c>
-      <c r="B395" t="n">
-        <v>0</v>
-      </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>O=C(Nc1ccccc1Cl)c1cnc2ccc(C3CCNCC3)cn12</t>
-        </is>
-      </c>
-      <c r="D395" t="inlineStr">
-        <is>
-          <t>O=C(Nc1ccccc1Cl)c1cnc2ccc(C3CCNCC3)cn12</t>
-        </is>
-      </c>
-      <c r="E395" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G395" t="n">
-        <v>354.84</v>
-      </c>
-      <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>3</v>
-      </c>
-      <c r="J395" t="n">
-        <v>3</v>
-      </c>
-      <c r="K395" t="n">
-        <v>4</v>
-      </c>
-      <c r="L395" t="n">
-        <v>3</v>
-      </c>
-      <c r="M395" t="n">
-        <v>58.43</v>
-      </c>
-      <c r="N395" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O395" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P395" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q395" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R395" t="inlineStr">
-        <is>
-          <t>CHEMBL1111286</t>
-        </is>
-      </c>
-      <c r="S395" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 5 uM</t>
-        </is>
-      </c>
-      <c r="T395" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>CHEMBL3408382</t>
-        </is>
-      </c>
-      <c r="B396" t="n">
-        <v>0</v>
-      </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>N#Cc1c(-c2ccccc2)cc(-c2ccccc2)nc1/N=c1\sc(-c2ccccc2)nn1-c1ccccc1</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr">
-        <is>
-          <t>N#Cc1c(-c2ccccc2)cc(-c2ccccc2)nc1/N=c1\sc(-c2ccccc2)nn1-c1ccccc1</t>
-        </is>
-      </c>
-      <c r="E396" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F396" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G396" t="n">
-        <v>507.62</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="n">
-        <v>3</v>
-      </c>
-      <c r="J396" t="n">
-        <v>5</v>
-      </c>
-      <c r="K396" t="n">
-        <v>6</v>
-      </c>
-      <c r="L396" t="n">
-        <v>6</v>
-      </c>
-      <c r="M396" t="n">
-        <v>66.86</v>
-      </c>
-      <c r="N396" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O396" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P396" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q396" t="n">
-        <v>2</v>
-      </c>
-      <c r="R396" t="inlineStr">
-        <is>
-          <t>CHEMBL3412788</t>
-        </is>
-      </c>
-      <c r="S396" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) assessed as inhibition of peptide phosphorylation at 30 uM by based microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T396" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>CHEMBL1775067</t>
-        </is>
-      </c>
-      <c r="B397" t="n">
-        <v>0</v>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>Oc1ccc(NCn2nnc3ccccc32)cc1</t>
-        </is>
-      </c>
-      <c r="D397" t="inlineStr">
-        <is>
-          <t>Oc1ccc(NCn2nnc3ccccc32)cc1</t>
-        </is>
-      </c>
-      <c r="E397" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F397" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G397" t="n">
-        <v>240.27</v>
-      </c>
-      <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="n">
-        <v>4</v>
-      </c>
-      <c r="J397" t="n">
-        <v>3</v>
-      </c>
-      <c r="K397" t="n">
-        <v>3</v>
-      </c>
-      <c r="L397" t="n">
-        <v>3</v>
-      </c>
-      <c r="M397" t="n">
-        <v>62.97</v>
-      </c>
-      <c r="N397" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O397" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P397" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q397" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="R397" t="inlineStr">
-        <is>
-          <t>CHEMBL1777657</t>
-        </is>
-      </c>
-      <c r="S397" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T397" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>CHEMBL1170750</t>
-        </is>
-      </c>
-      <c r="B398" t="n">
-        <v>0</v>
-      </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2cnc3cnc(-c4cc[nH]n4)cn23)cc1</t>
-        </is>
-      </c>
-      <c r="D398" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2cnc3cnc(-c4cc[nH]n4)cn23)cc1</t>
-        </is>
-      </c>
-      <c r="E398" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F398" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G398" t="n">
-        <v>261.29</v>
-      </c>
-      <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>3</v>
-      </c>
-      <c r="J398" t="n">
-        <v>2</v>
-      </c>
-      <c r="K398" t="n">
-        <v>4</v>
-      </c>
-      <c r="L398" t="n">
-        <v>4</v>
-      </c>
-      <c r="M398" t="n">
-        <v>58.87</v>
-      </c>
-      <c r="N398" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O398" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P398" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q398" t="n">
-        <v>-4</v>
-      </c>
-      <c r="R398" t="inlineStr">
-        <is>
-          <t>CHEMBL1174001</t>
-        </is>
-      </c>
-      <c r="S398" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 10 uM by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T398" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>CHEMBL3746022</t>
-        </is>
-      </c>
-      <c r="B399" t="n">
-        <v>0</v>
-      </c>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>CN1CCN(CCCNc2ncc3cc(Oc4ccc(F)cc4F)c(=O)n(C)c3n2)CC1</t>
-        </is>
-      </c>
-      <c r="D399" t="inlineStr">
-        <is>
-          <t>CN1CCN(CCCNc2ncc3cc(Oc4ccc(F)cc4F)c(=O)n(C)c3n2)CC1</t>
-        </is>
-      </c>
-      <c r="E399" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F399" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G399" t="n">
-        <v>444.49</v>
-      </c>
-      <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>7</v>
-      </c>
-      <c r="J399" t="n">
-        <v>7</v>
-      </c>
-      <c r="K399" t="n">
-        <v>4</v>
-      </c>
-      <c r="L399" t="n">
-        <v>3</v>
-      </c>
-      <c r="M399" t="n">
-        <v>75.52</v>
-      </c>
-      <c r="N399" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O399" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P399" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q399" t="n">
-        <v>0</v>
-      </c>
-      <c r="R399" t="inlineStr">
-        <is>
-          <t>CHEMBL3751441</t>
-        </is>
-      </c>
-      <c r="S399" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 10 uM</t>
-        </is>
-      </c>
-      <c r="T399" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>CHEMBL203138</t>
-        </is>
-      </c>
-      <c r="B400" t="n">
-        <v>0</v>
-      </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>CCONC(=O)c1cn(C)c(=O)c(C)c1Nc1ccc(Br)cc1F</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr">
-        <is>
-          <t>CCONC(=O)c1cn(C)c(=O)c(C)c1Nc1ccc(Br)cc1F</t>
-        </is>
-      </c>
-      <c r="E400" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F400" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G400" t="n">
-        <v>398.23</v>
-      </c>
-      <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>4</v>
-      </c>
-      <c r="J400" t="n">
-        <v>5</v>
-      </c>
-      <c r="K400" t="n">
-        <v>2</v>
-      </c>
-      <c r="L400" t="n">
-        <v>2</v>
-      </c>
-      <c r="M400" t="n">
-        <v>72.36</v>
-      </c>
-      <c r="N400" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O400" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P400" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q400" t="n">
-        <v>6</v>
-      </c>
-      <c r="R400" t="inlineStr">
-        <is>
-          <t>CHEMBL869961</t>
-        </is>
-      </c>
-      <c r="S400" t="inlineStr">
-        <is>
-          <t>Inhibition of PKBa at 10 uM</t>
-        </is>
-      </c>
-      <c r="T400" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>CHEMBL446637</t>
-        </is>
-      </c>
-      <c r="B401" t="n">
-        <v>0</v>
-      </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>O=C(c1nc(SCc2ccc(Cl)cc2)n2ccccc12)N1CCN(c2ncnc3c2CN(Cc2ccccc2)CC3)CC1</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>O=C(c1nc(SCc2ccc(Cl)cc2)n2ccccc12)N1CCN(c2ncnc3c2CN(Cc2ccccc2)CC3)CC1</t>
-        </is>
-      </c>
-      <c r="E401" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F401" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G401" t="n">
-        <v>610.1900000000001</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="n">
-        <v>7</v>
-      </c>
-      <c r="J401" t="n">
-        <v>7</v>
-      </c>
-      <c r="K401" t="n">
-        <v>7</v>
-      </c>
-      <c r="L401" t="n">
-        <v>5</v>
-      </c>
-      <c r="M401" t="n">
-        <v>69.87</v>
-      </c>
-      <c r="N401" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O401" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P401" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q401" t="n">
-        <v>0</v>
-      </c>
-      <c r="R401" t="inlineStr">
-        <is>
-          <t>CHEMBL953394</t>
-        </is>
-      </c>
-      <c r="S401" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1/PKBalpha at 10 uM by HTRF assay relative to control</t>
-        </is>
-      </c>
-      <c r="T401" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>CHEMBL2391417</t>
-        </is>
-      </c>
-      <c r="B402" t="n">
-        <v>0</v>
-      </c>
-      <c r="C402" t="inlineStr">
-        <is>
-          <t>O=C(Nc1cc(Sc2nncs2)c(O)c2ccccc12)c1ccc(Cl)cc1</t>
-        </is>
-      </c>
-      <c r="D402" t="inlineStr">
-        <is>
-          <t>O=C(Nc1cc(Sc2nncs2)c(O)c2ccccc12)c1ccc(Cl)cc1</t>
-        </is>
-      </c>
-      <c r="E402" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F402" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G402" t="n">
-        <v>413.91</v>
-      </c>
-      <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>5</v>
-      </c>
-      <c r="J402" t="n">
-        <v>4</v>
-      </c>
-      <c r="K402" t="n">
-        <v>4</v>
-      </c>
-      <c r="L402" t="n">
-        <v>4</v>
-      </c>
-      <c r="M402" t="n">
-        <v>75.11</v>
-      </c>
-      <c r="N402" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O402" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P402" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q402" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="R402" t="inlineStr">
-        <is>
-          <t>CHEMBL2394294</t>
-        </is>
-      </c>
-      <c r="S402" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 10 uM after 30 mins by fluorescence assay</t>
-        </is>
-      </c>
-      <c r="T402" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>CHEMBL3819007</t>
-        </is>
-      </c>
-      <c r="B403" t="n">
-        <v>0</v>
-      </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>CCCCCC(=O)OCC(CO)O[C@@H]1O[C@H](CS(=O)(=O)O)[C@@H](O)[C@H](O)[C@H]1O</t>
-        </is>
-      </c>
-      <c r="D403" t="inlineStr">
-        <is>
-          <t>CCCCCC(=O)OCC(CO)O[C@@H]1O[C@H](CS(=O)(=O)O)[C@@H](O)[C@H](O)[C@H]1O</t>
-        </is>
-      </c>
-      <c r="E403" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F403" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G403" t="n">
-        <v>416.45</v>
-      </c>
-      <c r="H403" t="n">
-        <v>5</v>
-      </c>
-      <c r="I403" t="n">
-        <v>11</v>
-      </c>
-      <c r="J403" t="n">
-        <v>11</v>
-      </c>
-      <c r="K403" t="n">
-        <v>1</v>
-      </c>
-      <c r="L403" t="n">
-        <v>0</v>
-      </c>
-      <c r="M403" t="n">
-        <v>180.05</v>
-      </c>
-      <c r="N403" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O403" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P403" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q403" t="n">
-        <v>18</v>
-      </c>
-      <c r="R403" t="inlineStr">
-        <is>
-          <t>CHEMBL3821460</t>
-        </is>
-      </c>
-      <c r="S403" t="inlineStr">
-        <is>
-          <t>Inhibition of human Akt1 PH domain using AKTide-2T as substrate at 100 uM by ELISA</t>
-        </is>
-      </c>
-      <c r="T403" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>CHEMBL4463436</t>
-        </is>
-      </c>
-      <c r="B404" t="n">
-        <v>0</v>
-      </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>Cc1nccc(Nc2cc(NC3CCN(c4ccc(C#N)cc4)CC3)c(C(N)=O)cn2)n1</t>
-        </is>
-      </c>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>Cc1nccc(Nc2cc(NC3CCN(c4ccc(C#N)cc4)CC3)c(C(N)=O)cn2)n1</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G404" t="n">
-        <v>428.5</v>
-      </c>
-      <c r="H404" t="n">
-        <v>3</v>
-      </c>
-      <c r="I404" t="n">
-        <v>8</v>
-      </c>
-      <c r="J404" t="n">
-        <v>6</v>
-      </c>
-      <c r="K404" t="n">
-        <v>4</v>
-      </c>
-      <c r="L404" t="n">
-        <v>3</v>
-      </c>
-      <c r="M404" t="n">
-        <v>132.85</v>
-      </c>
-      <c r="N404" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O404" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P404" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q404" t="n">
-        <v>10</v>
-      </c>
-      <c r="R404" t="inlineStr">
-        <is>
-          <t>CHEMBL4429545</t>
-        </is>
-      </c>
-      <c r="S404" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 1 uM</t>
-        </is>
-      </c>
-      <c r="T404" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>CHEMBL2420916</t>
-        </is>
-      </c>
-      <c r="B405" t="n">
-        <v>0</v>
-      </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>NC1(Cc2ccccc2)CCN(S(=O)(=O)c2cccc3cnccc23)CC1</t>
-        </is>
-      </c>
-      <c r="D405" t="inlineStr">
-        <is>
-          <t>NC1(Cc2ccccc2)CCN(S(=O)(=O)c2cccc3cnccc23)CC1</t>
-        </is>
-      </c>
-      <c r="E405" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G405" t="n">
-        <v>381.5</v>
-      </c>
-      <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>4</v>
-      </c>
-      <c r="J405" t="n">
-        <v>4</v>
-      </c>
-      <c r="K405" t="n">
-        <v>4</v>
-      </c>
-      <c r="L405" t="n">
-        <v>3</v>
-      </c>
-      <c r="M405" t="n">
-        <v>76.29000000000001</v>
-      </c>
-      <c r="N405" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O405" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P405" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q405" t="n">
-        <v>15</v>
-      </c>
-      <c r="R405" t="inlineStr">
-        <is>
-          <t>CHEMBL2424338</t>
-        </is>
-      </c>
-      <c r="S405" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 30 uM by microfluidic mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T405" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>CHEMBL2331664</t>
-        </is>
-      </c>
-      <c r="B406" t="n">
-        <v>0</v>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>Cc1ccc(-c2ccc3ncc4c(c3n2)n(C2CCN(C(=O)[C@H](C)O)CC2)c(=O)n4C)cn1</t>
-        </is>
-      </c>
-      <c r="D406" t="inlineStr">
-        <is>
-          <t>Cc1ccc(-c2ccc3ncc4c(c3n2)n(C2CCN(C(=O)[C@H](C)O)CC2)c(=O)n4C)cn1</t>
-        </is>
-      </c>
-      <c r="E406" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G406" t="n">
-        <v>446.51</v>
-      </c>
-      <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>6</v>
-      </c>
-      <c r="J406" t="n">
-        <v>3</v>
-      </c>
-      <c r="K406" t="n">
-        <v>5</v>
-      </c>
-      <c r="L406" t="n">
-        <v>4</v>
-      </c>
-      <c r="M406" t="n">
-        <v>106.14</v>
-      </c>
-      <c r="N406" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O406" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P406" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q406" t="n">
-        <v>-3</v>
-      </c>
-      <c r="R406" t="inlineStr">
-        <is>
-          <t>CHEMBL2345841</t>
-        </is>
-      </c>
-      <c r="S406" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 1 uM</t>
-        </is>
-      </c>
-      <c r="T406" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>CHEMBL1813777</t>
-        </is>
-      </c>
-      <c r="B407" t="n">
-        <v>0</v>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1nn(C)c2cc(-c3ccccc3)[nH]c(=O)c12</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr">
-        <is>
-          <t>CC(=O)Nc1nn(C)c2cc(-c3ccccc3)[nH]c(=O)c12</t>
-        </is>
-      </c>
-      <c r="E407" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F407" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G407" t="n">
-        <v>282.3</v>
-      </c>
-      <c r="H407" t="n">
-        <v>2</v>
-      </c>
-      <c r="I407" t="n">
-        <v>3</v>
-      </c>
-      <c r="J407" t="n">
-        <v>2</v>
-      </c>
-      <c r="K407" t="n">
-        <v>3</v>
-      </c>
-      <c r="L407" t="n">
-        <v>3</v>
-      </c>
-      <c r="M407" t="n">
-        <v>79.78</v>
-      </c>
-      <c r="N407" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O407" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P407" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q407" t="n">
-        <v>-9</v>
-      </c>
-      <c r="R407" t="inlineStr">
-        <is>
-          <t>CHEMBL1815739</t>
-        </is>
-      </c>
-      <c r="S407" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 30 uM by microfluidic mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T407" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>CHEMBL1234815</t>
-        </is>
-      </c>
-      <c r="B408" t="n">
-        <v>0</v>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>Cn1nc(-c2ccc3ccccc3c2)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="D408" t="inlineStr">
-        <is>
-          <t>Cn1nc(-c2ccc3ccccc3c2)c2c(N)ncnc21</t>
-        </is>
-      </c>
-      <c r="E408" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G408" t="n">
-        <v>275.31</v>
-      </c>
-      <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>4</v>
-      </c>
-      <c r="J408" t="n">
-        <v>1</v>
-      </c>
-      <c r="K408" t="n">
-        <v>4</v>
-      </c>
-      <c r="L408" t="n">
-        <v>4</v>
-      </c>
-      <c r="M408" t="n">
-        <v>69.62</v>
-      </c>
-      <c r="N408" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O408" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P408" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q408" t="n">
-        <v>10</v>
-      </c>
-      <c r="R408" t="inlineStr">
-        <is>
-          <t>CHEMBL1243988</t>
-        </is>
-      </c>
-      <c r="S408" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 1 uM after 60 mins by FRET assay in presence of 10 uM ATP</t>
-        </is>
-      </c>
-      <c r="T408" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>CHEMBL3265344</t>
-        </is>
-      </c>
-      <c r="B409" t="n">
-        <v>0</v>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>CN(C)CCN(Cc1ccc(Cl)cc1)c1ccc2ccccc2n1</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr">
-        <is>
-          <t>CN(C)CCN(Cc1ccc(Cl)cc1)c1ccc2ccccc2n1</t>
-        </is>
-      </c>
-      <c r="E409" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G409" t="n">
-        <v>339.87</v>
-      </c>
-      <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="n">
-        <v>3</v>
-      </c>
-      <c r="J409" t="n">
-        <v>6</v>
-      </c>
-      <c r="K409" t="n">
-        <v>3</v>
-      </c>
-      <c r="L409" t="n">
-        <v>3</v>
-      </c>
-      <c r="M409" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="N409" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O409" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P409" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q409" t="n">
-        <v>7</v>
-      </c>
-      <c r="R409" t="inlineStr">
-        <is>
-          <t>CHEMBL3266374</t>
-        </is>
-      </c>
-      <c r="S409" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 1 uM by Z'-LYTE assay relative to control</t>
-        </is>
-      </c>
-      <c r="T409" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>CHEMBL175816</t>
-        </is>
-      </c>
-      <c r="B410" t="n">
-        <v>0</v>
-      </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>c1ccc(-[n+]2c[nH]c3ncncc32)cc1</t>
-        </is>
-      </c>
-      <c r="D410" t="inlineStr">
-        <is>
-          <t>c1ccc(-[n+]2c[nH]c3ncncc32)cc1</t>
-        </is>
-      </c>
-      <c r="E410" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G410" t="n">
-        <v>197.22</v>
-      </c>
-      <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>2</v>
-      </c>
-      <c r="J410" t="n">
-        <v>1</v>
-      </c>
-      <c r="K410" t="n">
-        <v>3</v>
-      </c>
-      <c r="L410" t="n">
-        <v>3</v>
-      </c>
-      <c r="M410" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="N410" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O410" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P410" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q410" t="n">
-        <v>0</v>
-      </c>
-      <c r="R410" t="inlineStr">
-        <is>
-          <t>CHEMBL830592</t>
-        </is>
-      </c>
-      <c r="S410" t="inlineStr">
-        <is>
-          <t>Inhibition of human Protein kinase B alpha at 30 uM</t>
-        </is>
-      </c>
-      <c r="T410" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>CHEMBL4280308</t>
-        </is>
-      </c>
-      <c r="B411" t="n">
-        <v>0</v>
-      </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>Nc1cc(-c2ccnc3ccccc23)c[nH]c1=O</t>
-        </is>
-      </c>
-      <c r="D411" t="inlineStr">
-        <is>
-          <t>Nc1cc(-c2ccnc3ccccc23)c[nH]c1=O</t>
-        </is>
-      </c>
-      <c r="E411" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G411" t="n">
-        <v>237.26</v>
-      </c>
-      <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>3</v>
-      </c>
-      <c r="J411" t="n">
-        <v>1</v>
-      </c>
-      <c r="K411" t="n">
-        <v>3</v>
-      </c>
-      <c r="L411" t="n">
-        <v>3</v>
-      </c>
-      <c r="M411" t="n">
-        <v>71.77</v>
-      </c>
-      <c r="N411" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O411" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P411" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q411" t="n">
-        <v>15</v>
-      </c>
-      <c r="R411" t="inlineStr">
-        <is>
-          <t>CHEMBL4256669</t>
-        </is>
-      </c>
-      <c r="S411" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 100 uM using peptide as substrate in presence of ATP and MgCl2 by mobility shift assay relative to control</t>
-        </is>
-      </c>
-      <c r="T411" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>CHEMBL4860038</t>
-        </is>
-      </c>
-      <c r="B412" t="n">
-        <v>0</v>
-      </c>
-      <c r="C412" t="inlineStr">
-        <is>
-          <t>Nc1c(-c2nc3cc(N4CCN(C(=O)CCCCCNc5cccc6c5C(=O)N(C5CCC(=O)NC5=O)C6=O)CC4)ccc3[nH]2)c(=O)[nH]c2cccc(F)c12</t>
-        </is>
-      </c>
-      <c r="D412" t="inlineStr">
-        <is>
-          <t>Nc1c(-c2nc3cc(N4CCN(C(=O)CCCCCNc5cccc6c5C(=O)N(C5CCC(=O)NC5=O)C6=O)CC4)ccc3[nH]2)c(=O)[nH]c2cccc(F)c12</t>
-        </is>
-      </c>
-      <c r="E412" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F412" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G412" t="n">
-        <v>747.79</v>
-      </c>
-      <c r="H412" t="n">
-        <v>5</v>
-      </c>
-      <c r="I412" t="n">
-        <v>10</v>
-      </c>
-      <c r="J412" t="n">
-        <v>10</v>
-      </c>
-      <c r="K412" t="n">
-        <v>8</v>
-      </c>
-      <c r="L412" t="n">
-        <v>5</v>
-      </c>
-      <c r="M412" t="n">
-        <v>206.69</v>
-      </c>
-      <c r="N412" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O412" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P412" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q412" t="n">
-        <v>7</v>
-      </c>
-      <c r="R412" t="inlineStr">
-        <is>
-          <t>CHEMBL4841753</t>
-        </is>
-      </c>
-      <c r="S412" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 1000 nM relative to control</t>
-        </is>
-      </c>
-      <c r="T412" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>CHEMBL4877117</t>
-        </is>
-      </c>
-      <c r="B413" t="n">
-        <v>0</v>
-      </c>
-      <c r="C413" t="inlineStr">
-        <is>
-          <t>Cn1cc(-n2cnc3c(NCc4nc5cc(Cl)c(Cl)cc5[nH]4)nc(N4CCOCC4)nc32)cn1</t>
-        </is>
-      </c>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>Cn1cc(-n2cnc3c(NCc4nc5cc(Cl)c(Cl)cc5[nH]4)nc(N4CCOCC4)nc32)cn1</t>
-        </is>
-      </c>
-      <c r="E413" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G413" t="n">
-        <v>499.37</v>
-      </c>
-      <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>8</v>
-      </c>
-      <c r="J413" t="n">
-        <v>5</v>
-      </c>
-      <c r="K413" t="n">
-        <v>6</v>
-      </c>
-      <c r="L413" t="n">
-        <v>5</v>
-      </c>
-      <c r="M413" t="n">
-        <v>114.6</v>
-      </c>
-      <c r="N413" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O413" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P413" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q413" t="n">
-        <v>1</v>
-      </c>
-      <c r="R413" t="inlineStr">
-        <is>
-          <t>CHEMBL4806321</t>
-        </is>
-      </c>
-      <c r="S413" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 10 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T413" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>CHEMBL2048623</t>
-        </is>
-      </c>
-      <c r="B414" t="n">
-        <v>0</v>
-      </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>Cc1cc(OC2CCS(=O)(=O)CC2)cc(C)c1-c1cccc(COc2ccc(CCC(=O)O)c(F)c2)c1</t>
-        </is>
-      </c>
-      <c r="D414" t="inlineStr">
-        <is>
-          <t>Cc1cc(OC2CCS(=O)(=O)CC2)cc(C)c1-c1cccc(COc2ccc(CCC(=O)O)c(F)c2)c1</t>
-        </is>
-      </c>
-      <c r="E414" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F414" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G414" t="n">
-        <v>526.63</v>
-      </c>
-      <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>6</v>
-      </c>
-      <c r="J414" t="n">
-        <v>9</v>
-      </c>
-      <c r="K414" t="n">
-        <v>4</v>
-      </c>
-      <c r="L414" t="n">
-        <v>3</v>
-      </c>
-      <c r="M414" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="N414" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O414" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P414" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q414" t="n">
-        <v>-1</v>
-      </c>
-      <c r="R414" t="inlineStr">
-        <is>
-          <t>CHEMBL5058756</t>
-        </is>
-      </c>
-      <c r="S414" t="inlineStr">
-        <is>
-          <t>Protein Serine/Threonine Kinase, PKBα/Akt1 Eurofins-Panlabs enzyme assay</t>
-        </is>
-      </c>
-      <c r="T414" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>CHEMBL2436726</t>
-        </is>
-      </c>
-      <c r="B415" t="n">
-        <v>0</v>
-      </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)Nc1ccc(O)c(Sc2ncn[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="D415" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)Nc1ccc(O)c(Sc2ncn[nH]2)c1</t>
-        </is>
-      </c>
-      <c r="E415" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G415" t="n">
-        <v>286.34</v>
-      </c>
-      <c r="H415" t="n">
-        <v>3</v>
-      </c>
-      <c r="I415" t="n">
-        <v>6</v>
-      </c>
-      <c r="J415" t="n">
-        <v>4</v>
-      </c>
-      <c r="K415" t="n">
-        <v>2</v>
-      </c>
-      <c r="L415" t="n">
-        <v>2</v>
-      </c>
-      <c r="M415" t="n">
-        <v>107.97</v>
-      </c>
-      <c r="N415" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O415" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P415" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q415" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="R415" t="inlineStr">
-        <is>
-          <t>CHEMBL2438113</t>
-        </is>
-      </c>
-      <c r="S415" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT (unknown origin) at 10 uM after 30 mins by fluorescence assay relative to control</t>
-        </is>
-      </c>
-      <c r="T415" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>CHEMBL103098</t>
-        </is>
-      </c>
-      <c r="B416" t="n">
-        <v>0</v>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1ccc(-c2ccc3c(NC(=O)C4CC4)n[nH]c3c2)cc1</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1ccc(-c2ccc3c(NC(=O)C4CC4)n[nH]c3c2)cc1</t>
-        </is>
-      </c>
-      <c r="E416" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G416" t="n">
-        <v>356.41</v>
-      </c>
-      <c r="H416" t="n">
-        <v>3</v>
-      </c>
-      <c r="I416" t="n">
-        <v>4</v>
-      </c>
-      <c r="J416" t="n">
-        <v>4</v>
-      </c>
-      <c r="K416" t="n">
-        <v>4</v>
-      </c>
-      <c r="L416" t="n">
-        <v>3</v>
-      </c>
-      <c r="M416" t="n">
-        <v>117.94</v>
-      </c>
-      <c r="N416" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O416" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P416" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q416" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R416" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S416" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T416" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>CHEMBL160937</t>
-        </is>
-      </c>
-      <c r="B417" t="n">
-        <v>0</v>
-      </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
-        </is>
-      </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
-        </is>
-      </c>
-      <c r="E417" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G417" t="n">
-        <v>314.73</v>
-      </c>
-      <c r="H417" t="n">
-        <v>3</v>
-      </c>
-      <c r="I417" t="n">
-        <v>4</v>
-      </c>
-      <c r="J417" t="n">
-        <v>3</v>
-      </c>
-      <c r="K417" t="n">
-        <v>3</v>
-      </c>
-      <c r="L417" t="n">
-        <v>2</v>
-      </c>
-      <c r="M417" t="n">
-        <v>78.43000000000001</v>
-      </c>
-      <c r="N417" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O417" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P417" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q417" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R417" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S417" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T417" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>CHEMBL1641799</t>
-        </is>
-      </c>
-      <c r="B418" t="n">
-        <v>0</v>
-      </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1cc(C(=O)O)c(NC(=O)Nc2ccc3[nH]ncc3c2)s1</t>
-        </is>
-      </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>CC(C)(C)c1cc(C(=O)O)c(NC(=O)Nc2ccc3[nH]ncc3c2)s1</t>
-        </is>
-      </c>
-      <c r="E418" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G418" t="n">
-        <v>358.42</v>
-      </c>
-      <c r="H418" t="n">
-        <v>4</v>
-      </c>
-      <c r="I418" t="n">
-        <v>4</v>
-      </c>
-      <c r="J418" t="n">
-        <v>3</v>
-      </c>
-      <c r="K418" t="n">
-        <v>3</v>
-      </c>
-      <c r="L418" t="n">
-        <v>3</v>
-      </c>
-      <c r="M418" t="n">
-        <v>107.11</v>
-      </c>
-      <c r="N418" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O418" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P418" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q418" t="n">
-        <v>0</v>
-      </c>
-      <c r="R418" t="inlineStr">
-        <is>
-          <t>CHEMBL1646943</t>
-        </is>
-      </c>
-      <c r="S418" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 at 10 uM</t>
-        </is>
-      </c>
-      <c r="T418" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>CHEMBL1794052</t>
-        </is>
-      </c>
-      <c r="B419" t="n">
-        <v>0</v>
-      </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>COC(=O)c1ccc2c(c1)C(=Cc1cc(Br)c(O)c(Br)c1)C(=O)N2</t>
-        </is>
-      </c>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>COC(=O)c1ccc2c(c1)C(=Cc1cc(Br)c(O)c(Br)c1)C(=O)N2</t>
-        </is>
-      </c>
-      <c r="E419" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G419" t="n">
-        <v>453.09</v>
-      </c>
-      <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>4</v>
-      </c>
-      <c r="J419" t="n">
-        <v>2</v>
-      </c>
-      <c r="K419" t="n">
-        <v>3</v>
-      </c>
-      <c r="L419" t="n">
-        <v>2</v>
-      </c>
-      <c r="M419" t="n">
-        <v>75.63</v>
-      </c>
-      <c r="N419" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O419" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P419" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q419" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="R419" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S419" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T419" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>CHEMBL187985</t>
-        </is>
-      </c>
-      <c r="B420" t="n">
-        <v>0</v>
-      </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
-        </is>
-      </c>
-      <c r="D420" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2c(N3CCCC3)nccc21</t>
-        </is>
-      </c>
-      <c r="E420" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G420" t="n">
-        <v>299.34</v>
-      </c>
-      <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>7</v>
-      </c>
-      <c r="J420" t="n">
-        <v>3</v>
-      </c>
-      <c r="K420" t="n">
-        <v>4</v>
-      </c>
-      <c r="L420" t="n">
-        <v>3</v>
-      </c>
-      <c r="M420" t="n">
-        <v>98.89</v>
-      </c>
-      <c r="N420" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O420" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P420" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q420" t="n">
-        <v>-2.14</v>
-      </c>
-      <c r="R420" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S420" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T420" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>CHEMBL188381</t>
-        </is>
-      </c>
-      <c r="B421" t="n">
-        <v>0</v>
-      </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>CN(c1ccc(NC(=O)Nc2ccc(OC(F)(F)F)cc2)cc1)c1ccnc(Nc2cccc(S(N)(=O)=O)c2)n1</t>
-        </is>
-      </c>
-      <c r="D421" t="inlineStr">
-        <is>
-          <t>CN(c1ccc(NC(=O)Nc2ccc(OC(F)(F)F)cc2)cc1)c1ccnc(Nc2cccc(S(N)(=O)=O)c2)n1</t>
-        </is>
-      </c>
-      <c r="E421" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G421" t="n">
-        <v>573.5599999999999</v>
-      </c>
-      <c r="H421" t="n">
-        <v>4</v>
-      </c>
-      <c r="I421" t="n">
-        <v>8</v>
-      </c>
-      <c r="J421" t="n">
-        <v>8</v>
-      </c>
-      <c r="K421" t="n">
-        <v>4</v>
-      </c>
-      <c r="L421" t="n">
-        <v>4</v>
-      </c>
-      <c r="M421" t="n">
-        <v>151.57</v>
-      </c>
-      <c r="N421" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O421" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P421" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q421" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R421" t="inlineStr">
-        <is>
-          <t>CHEMBL1961875</t>
-        </is>
-      </c>
-      <c r="S421" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T421" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>CHEMBL1909342</t>
-        </is>
-      </c>
-      <c r="B422" t="n">
-        <v>0</v>
-      </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)CN2CCOCC2)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="D422" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)CN2CCOCC2)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="E422" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G422" t="n">
-        <v>305.4</v>
-      </c>
-      <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>4</v>
-      </c>
-      <c r="J422" t="n">
-        <v>3</v>
-      </c>
-      <c r="K422" t="n">
-        <v>3</v>
-      </c>
-      <c r="L422" t="n">
-        <v>1</v>
-      </c>
-      <c r="M422" t="n">
-        <v>65.36</v>
-      </c>
-      <c r="N422" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O422" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P422" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q422" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R422" t="inlineStr">
-        <is>
-          <t>CHEMBL1961875</t>
-        </is>
-      </c>
-      <c r="S422" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T422" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>CHEMBL1909380</t>
-        </is>
-      </c>
-      <c r="B423" t="n">
-        <v>0</v>
-      </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="E423" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G423" t="n">
-        <v>411.47</v>
-      </c>
-      <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>6</v>
-      </c>
-      <c r="J423" t="n">
-        <v>6</v>
-      </c>
-      <c r="K423" t="n">
-        <v>5</v>
-      </c>
-      <c r="L423" t="n">
-        <v>5</v>
-      </c>
-      <c r="M423" t="n">
-        <v>74.09</v>
-      </c>
-      <c r="N423" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O423" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P423" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q423" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="R423" t="inlineStr">
-        <is>
-          <t>CHEMBL1961875</t>
-        </is>
-      </c>
-      <c r="S423" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T423" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>CHEMBL1909399</t>
-        </is>
-      </c>
-      <c r="B424" t="n">
-        <v>0</v>
-      </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3cccc(CCc4ccncc4)c32)cc1</t>
-        </is>
-      </c>
-      <c r="D424" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3cccc(CCc4ccncc4)c32)cc1</t>
-        </is>
-      </c>
-      <c r="E424" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F424" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G424" t="n">
-        <v>421.48</v>
-      </c>
-      <c r="H424" t="n">
-        <v>3</v>
-      </c>
-      <c r="I424" t="n">
-        <v>5</v>
-      </c>
-      <c r="J424" t="n">
-        <v>6</v>
-      </c>
-      <c r="K424" t="n">
-        <v>4</v>
-      </c>
-      <c r="L424" t="n">
-        <v>3</v>
-      </c>
-      <c r="M424" t="n">
-        <v>126.54</v>
-      </c>
-      <c r="N424" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O424" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P424" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q424" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="R424" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S424" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T424" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>CHEMBL202891</t>
-        </is>
-      </c>
-      <c r="B425" t="n">
-        <v>0</v>
-      </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
-        </is>
-      </c>
-      <c r="D425" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
-        </is>
-      </c>
-      <c r="E425" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F425" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G425" t="n">
-        <v>328.38</v>
-      </c>
-      <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>4</v>
-      </c>
-      <c r="J425" t="n">
-        <v>4</v>
-      </c>
-      <c r="K425" t="n">
-        <v>4</v>
-      </c>
-      <c r="L425" t="n">
-        <v>4</v>
-      </c>
-      <c r="M425" t="n">
-        <v>63.69</v>
-      </c>
-      <c r="N425" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O425" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P425" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q425" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R425" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S425" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T425" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>CHEMBL218859</t>
-        </is>
-      </c>
-      <c r="B426" t="n">
-        <v>0</v>
-      </c>
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>CNC(=O)c1cncc(/C=C/c2c(C)cccc2C)c1</t>
-        </is>
-      </c>
-      <c r="D426" t="inlineStr">
-        <is>
-          <t>CNC(=O)c1cncc(/C=C/c2c(C)cccc2C)c1</t>
-        </is>
-      </c>
-      <c r="E426" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F426" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G426" t="n">
-        <v>266.34</v>
-      </c>
-      <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>2</v>
-      </c>
-      <c r="J426" t="n">
-        <v>3</v>
-      </c>
-      <c r="K426" t="n">
-        <v>2</v>
-      </c>
-      <c r="L426" t="n">
-        <v>2</v>
-      </c>
-      <c r="M426" t="n">
-        <v>41.99</v>
-      </c>
-      <c r="N426" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O426" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P426" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q426" t="n">
-        <v>-2.68</v>
-      </c>
-      <c r="R426" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S426" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T426" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>CHEMBL231013</t>
-        </is>
-      </c>
-      <c r="B427" t="n">
-        <v>0</v>
-      </c>
-      <c r="C427" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2ccncc2)cc1C(N)=O</t>
-        </is>
-      </c>
-      <c r="D427" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2ccncc2)cc1C(N)=O</t>
-        </is>
-      </c>
-      <c r="E427" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F427" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G427" t="n">
-        <v>228.25</v>
-      </c>
-      <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>3</v>
-      </c>
-      <c r="J427" t="n">
-        <v>3</v>
-      </c>
-      <c r="K427" t="n">
-        <v>2</v>
-      </c>
-      <c r="L427" t="n">
-        <v>2</v>
-      </c>
-      <c r="M427" t="n">
-        <v>65.20999999999999</v>
-      </c>
-      <c r="N427" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O427" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P427" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q427" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="R427" t="inlineStr">
-        <is>
-          <t>CHEMBL1961875</t>
-        </is>
-      </c>
-      <c r="S427" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T427" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>CHEMBL241517</t>
-        </is>
-      </c>
-      <c r="B428" t="n">
-        <v>0</v>
-      </c>
-      <c r="C428" t="inlineStr">
-        <is>
-          <t>Nc1ncc(-c2cccc(S(N)(=O)=O)c2)c2scc(-c3ccc(F)c(Cl)c3)c12</t>
-        </is>
-      </c>
-      <c r="D428" t="inlineStr">
-        <is>
-          <t>Nc1ncc(-c2cccc(S(N)(=O)=O)c2)c2scc(-c3ccc(F)c(Cl)c3)c12</t>
-        </is>
-      </c>
-      <c r="E428" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F428" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G428" t="n">
-        <v>433.92</v>
-      </c>
-      <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="n">
-        <v>4</v>
-      </c>
-      <c r="J428" t="n">
-        <v>3</v>
-      </c>
-      <c r="K428" t="n">
-        <v>4</v>
-      </c>
-      <c r="L428" t="n">
-        <v>4</v>
-      </c>
-      <c r="M428" t="n">
-        <v>99.06999999999999</v>
-      </c>
-      <c r="N428" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O428" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P428" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q428" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="R428" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S428" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T428" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>CHEMBL318892</t>
-        </is>
-      </c>
-      <c r="B429" t="n">
-        <v>0</v>
-      </c>
-      <c r="C429" t="inlineStr">
-        <is>
-          <t>CN1CCC(n2cnc(-c3ccc(F)cc3)c2-c2ccnc(Nc3ccccc3)n2)CC1</t>
-        </is>
-      </c>
-      <c r="D429" t="inlineStr">
-        <is>
-          <t>CN1CCC(n2cnc(-c3ccc(F)cc3)c2-c2ccnc(Nc3ccccc3)n2)CC1</t>
-        </is>
-      </c>
-      <c r="E429" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F429" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G429" t="n">
-        <v>428.52</v>
-      </c>
-      <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>5</v>
-      </c>
-      <c r="J429" t="n">
-        <v>5</v>
-      </c>
-      <c r="K429" t="n">
-        <v>5</v>
-      </c>
-      <c r="L429" t="n">
-        <v>4</v>
-      </c>
-      <c r="M429" t="n">
-        <v>58.87</v>
-      </c>
-      <c r="N429" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O429" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P429" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q429" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="R429" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S429" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T429" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>CHEMBL476351</t>
-        </is>
-      </c>
-      <c r="B430" t="n">
-        <v>0</v>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>Cc1ccc(NC(=O)c2ccnc(N3CCOCC3)c2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
-        </is>
-      </c>
-      <c r="D430" t="inlineStr">
-        <is>
-          <t>Cc1ccc(NC(=O)c2ccnc(N3CCOCC3)c2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
-        </is>
-      </c>
-      <c r="E430" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F430" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G430" t="n">
-        <v>470.57</v>
-      </c>
-      <c r="H430" t="n">
-        <v>2</v>
-      </c>
-      <c r="I430" t="n">
-        <v>5</v>
-      </c>
-      <c r="J430" t="n">
-        <v>7</v>
-      </c>
-      <c r="K430" t="n">
-        <v>5</v>
-      </c>
-      <c r="L430" t="n">
-        <v>3</v>
-      </c>
-      <c r="M430" t="n">
-        <v>83.56</v>
-      </c>
-      <c r="N430" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O430" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P430" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q430" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R430" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S430" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T430" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>CHEMBL481510</t>
-        </is>
-      </c>
-      <c r="B431" t="n">
-        <v>0</v>
-      </c>
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>NC(=O)c1sc(-n2cnc3ccc(C(F)(F)F)cc32)cc1OCc1ccccc1Br</t>
-        </is>
-      </c>
-      <c r="D431" t="inlineStr">
-        <is>
-          <t>NC(=O)c1sc(-n2cnc3ccc(C(F)(F)F)cc32)cc1OCc1ccccc1Br</t>
-        </is>
-      </c>
-      <c r="E431" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F431" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G431" t="n">
-        <v>496.31</v>
-      </c>
-      <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>3</v>
-      </c>
-      <c r="J431" t="n">
-        <v>5</v>
-      </c>
-      <c r="K431" t="n">
-        <v>4</v>
-      </c>
-      <c r="L431" t="n">
-        <v>4</v>
-      </c>
-      <c r="M431" t="n">
-        <v>70.14</v>
-      </c>
-      <c r="N431" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O431" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P431" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q431" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R431" t="inlineStr">
-        <is>
-          <t>CHEMBL1961874</t>
-        </is>
-      </c>
-      <c r="S431" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: AKT1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T431" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>CHEMBL4854059</t>
-        </is>
-      </c>
-      <c r="B432" t="n">
-        <v>0</v>
-      </c>
-      <c r="C432" t="inlineStr">
-        <is>
-          <t>CC(C)C[C@@H](NC(=O)NC1CCN(c2ncnc3[nH]ccc23)CC1)C(=O)NO</t>
-        </is>
-      </c>
-      <c r="D432" t="inlineStr">
-        <is>
-          <t>CC(C)C[C@@H](NC(=O)NC1CCN(c2ncnc3[nH]ccc23)CC1)C(=O)NO</t>
-        </is>
-      </c>
-      <c r="E432" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F432" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G432" t="n">
-        <v>389.46</v>
-      </c>
-      <c r="H432" t="n">
-        <v>5</v>
-      </c>
-      <c r="I432" t="n">
-        <v>6</v>
-      </c>
-      <c r="J432" t="n">
-        <v>6</v>
-      </c>
-      <c r="K432" t="n">
-        <v>3</v>
-      </c>
-      <c r="L432" t="n">
-        <v>2</v>
-      </c>
-      <c r="M432" t="n">
-        <v>135.27</v>
-      </c>
-      <c r="N432" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O432" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P432" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q432" t="n">
-        <v>6</v>
-      </c>
-      <c r="R432" t="inlineStr">
-        <is>
-          <t>CHEMBL4834346</t>
-        </is>
-      </c>
-      <c r="S432" t="inlineStr">
-        <is>
-          <t>Inhibition of AKT1 (unknown origin) at 1 uM incubated for 40 mins in presence of ATP by Kinase-Glo reagent based luminescence analysis relative to control</t>
-        </is>
-      </c>
-      <c r="T432" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
